--- a/Sprint3/Sprint3Timesheet.xlsx
+++ b/Sprint3/Sprint3Timesheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Epic</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Worked with David to integrate BQ into position calculation code, creating new schema/database. rewrote and improved summary creation file based on new information, wrote center point calculation function for calculating distance between codes(3.5h)</t>
+  </si>
+  <si>
+    <t>Progress check; added timer for bigquery uploads(.5h)</t>
+  </si>
+  <si>
+    <t>Performed bug fixes on Birdsv3 with distance calculation, camera init, and BQ uploading. Spent 2 hours debugging GCP issues(3h)</t>
+  </si>
+  <si>
+    <t>Designed, built, and deployed docker file to container registry to resolve dependency issues on RPI architecture. Reworked main file for RPI and camera compatability(4h)</t>
+  </si>
+  <si>
+    <t>Worked on building a cross-architectural container to resolve dependency issues for RPI(3h)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +619,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
@@ -652,22 +664,34 @@
       <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="11"/>
+      <c r="O5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="S5" s="4"/>
-      <c r="T5" s="11"/>
+      <c r="T5" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
